--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -16,10 +16,11 @@
     <sheet name="optimization_parameters" sheetId="6" r:id="rId7"/>
     <sheet name="threshold_b" sheetId="16" r:id="rId8"/>
     <sheet name="wt_log2_optimized_expression" sheetId="19" r:id="rId9"/>
-    <sheet name="wt_sigmas" sheetId="20" r:id="rId10"/>
-    <sheet name="dcin5_log2_optimized_expression" sheetId="21" r:id="rId11"/>
+    <sheet name="dcin5_log2_optimized_expression" sheetId="20" r:id="rId10"/>
+    <sheet name="wt_sigmas" sheetId="21" r:id="rId11"/>
     <sheet name="dcin5_sigmas" sheetId="22" r:id="rId12"/>
     <sheet name="network_optimized_weights" sheetId="23" r:id="rId13"/>
+    <sheet name="optimization_diagnostics" sheetId="24" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
   <si>
     <t>CIN5</t>
   </si>
@@ -130,7 +131,34 @@
     <t>makeGraphs</t>
   </si>
   <si>
-    <t>StandardDeviation</t>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>LSE</t>
+  </si>
+  <si>
+    <t>Penalty</t>
+  </si>
+  <si>
+    <t>min LSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>wt SSE</t>
+  </si>
+  <si>
+    <t>dcin5 SSE</t>
   </si>
 </sst>
 </file>
@@ -807,76 +835,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -967,64 +925,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8096860703257266E-2</v>
+        <v>-9.8415630865711395E-2</v>
       </c>
       <c r="E2">
-        <v>-0.19358269861863692</v>
+        <v>-0.19421341855574617</v>
       </c>
       <c r="F2">
-        <v>-0.28635898800690379</v>
+        <v>-0.28729355925265893</v>
       </c>
       <c r="G2">
-        <v>-0.37633433539069022</v>
+        <v>-0.37756345942282005</v>
       </c>
       <c r="H2">
-        <v>-0.46342341292075317</v>
+        <v>-0.4649366493466236</v>
       </c>
       <c r="I2">
-        <v>-0.54755085190618946</v>
+        <v>-0.5493367221306048</v>
       </c>
       <c r="J2">
-        <v>-0.62865001824123434</v>
+        <v>-0.63069609006755056</v>
       </c>
       <c r="K2">
-        <v>-0.70666652165120414</v>
+        <v>-0.70895953801899125</v>
       </c>
       <c r="L2">
-        <v>-0.78155688393986367</v>
+        <v>-0.78408287327487469</v>
       </c>
       <c r="M2">
-        <v>-0.85329152390132901</v>
+        <v>-0.85603594995930821</v>
       </c>
       <c r="N2">
-        <v>-0.92185320131224646</v>
+        <v>-0.92480109285265377</v>
       </c>
       <c r="O2">
-        <v>-0.98723937397358419</v>
+        <v>-0.9903754864911255</v>
       </c>
       <c r="P2">
-        <v>-1.0494603458814094</v>
+        <v>-1.0527692995615539</v>
       </c>
       <c r="Q2">
-        <v>-1.108540953770409</v>
+        <v>-1.1120073944279283</v>
       </c>
       <c r="R2">
-        <v>-1.1645184112032478</v>
+        <v>-1.168127143194938</v>
       </c>
       <c r="S2">
-        <v>-1.2174433540278908</v>
+        <v>-1.2211794869461998</v>
       </c>
       <c r="T2">
-        <v>-1.2673774377782567</v>
+        <v>-1.2712265015727739</v>
       </c>
       <c r="U2">
-        <v>-1.3143938374342135</v>
+        <v>-1.3183419034269952</v>
       </c>
       <c r="V2">
-        <v>-1.358574707161095</v>
+        <v>-1.3626084757375463</v>
       </c>
       <c r="W2">
-        <v>-1.4000112075507467</v>
+        <v>-1.4041180953399601</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1038,64 +996,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1587401554145875E-2</v>
+        <v>-6.1695580472264637E-2</v>
       </c>
       <c r="E3">
-        <v>-0.12004083855233248</v>
+        <v>-0.12025159100022467</v>
       </c>
       <c r="F3">
-        <v>-0.17540023755289089</v>
+        <v>-0.17570780612319539</v>
       </c>
       <c r="G3">
-        <v>-0.22771867154787728</v>
+        <v>-0.22811720726268783</v>
       </c>
       <c r="H3">
-        <v>-0.27706005482663904</v>
+        <v>-0.27754366929297497</v>
       </c>
       <c r="I3">
-        <v>-0.32349959514602494</v>
+        <v>-0.32406241829767435</v>
       </c>
       <c r="J3">
-        <v>-0.3671212469330089</v>
+        <v>-0.3677574742905928</v>
       </c>
       <c r="K3">
-        <v>-0.40801777359968872</v>
+        <v>-0.40872171608120611</v>
       </c>
       <c r="L3">
-        <v>-0.44628821230622345</v>
+        <v>-0.44705433466919547</v>
       </c>
       <c r="M3">
-        <v>-0.4820377030316837</v>
+        <v>-0.48286066269974875</v>
       </c>
       <c r="N3">
-        <v>-0.51537509656286695</v>
+        <v>-0.51624977105786596</v>
       </c>
       <c r="O3">
-        <v>-0.54641269326412156</v>
+        <v>-0.54733420681301193</v>
       </c>
       <c r="P3">
-        <v>-0.57526409910594489</v>
+        <v>-0.57622783863033211</v>
       </c>
       <c r="Q3">
-        <v>-0.6020439849716317</v>
+        <v>-0.60304561487847708</v>
       </c>
       <c r="R3">
-        <v>-0.62686625677270846</v>
+        <v>-0.62790172449432446</v>
       </c>
       <c r="S3">
-        <v>-0.64984390646681456</v>
+        <v>-0.65090944702397735</v>
       </c>
       <c r="T3">
-        <v>-0.67108752210528677</v>
+        <v>-0.67217965509992694</v>
       </c>
       <c r="U3">
-        <v>-0.69070526398632792</v>
+        <v>-0.69182079016701059</v>
       </c>
       <c r="V3">
-        <v>-0.70880170655550589</v>
+        <v>-0.70993769854923061</v>
       </c>
       <c r="W3">
-        <v>-0.72547791648627724</v>
+        <v>-0.72663170963117274</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1180,64 +1138,179 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-3.7774071703411384E-2</v>
+        <v>-3.908229913513931E-2</v>
       </c>
       <c r="E5">
-        <v>-7.3540348211195344E-2</v>
+        <v>-7.6100322098197407E-2</v>
       </c>
       <c r="F5">
-        <v>-0.10736637229488298</v>
+        <v>-0.11112054431760732</v>
       </c>
       <c r="G5">
-        <v>-0.1393215114212519</v>
+        <v>-0.14421175778249326</v>
       </c>
       <c r="H5">
-        <v>-0.16947611791489123</v>
+        <v>-0.17544416984513003</v>
       </c>
       <c r="I5">
-        <v>-0.19790157872213507</v>
+        <v>-0.2048894472936392</v>
       </c>
       <c r="J5">
-        <v>-0.2246695044288797</v>
+        <v>-0.23261983766255628</v>
       </c>
       <c r="K5">
-        <v>-0.24985174272214777</v>
+        <v>-0.25870816923429668</v>
       </c>
       <c r="L5">
-        <v>-0.273519653608082</v>
+        <v>-0.28322705890386018</v>
       </c>
       <c r="M5">
-        <v>-0.29574411660378264</v>
+        <v>-0.3062489023647269</v>
       </c>
       <c r="N5">
-        <v>-0.3165949045927815</v>
+        <v>-0.32784518455607942</v>
       </c>
       <c r="O5">
-        <v>-0.33614070494602749</v>
+        <v>-0.34808648361082384</v>
       </c>
       <c r="P5">
-        <v>-0.35444859640539145</v>
+        <v>-0.36704189081996774</v>
       </c>
       <c r="Q5">
-        <v>-0.37158409542629356</v>
+        <v>-0.38477904199353069</v>
       </c>
       <c r="R5">
-        <v>-0.38761073362000287</v>
+        <v>-0.40136364593067475</v>
       </c>
       <c r="S5">
-        <v>-0.40259013342979066</v>
+        <v>-0.41685954866879965</v>
       </c>
       <c r="T5">
-        <v>-0.41658167857035644</v>
+        <v>-0.43132836339590414</v>
       </c>
       <c r="U5">
-        <v>-0.42964261797776665</v>
+        <v>-0.44482956705563848</v>
       </c>
       <c r="V5">
-        <v>-0.44182781847083979</v>
+        <v>-0.45742022068355997</v>
       </c>
       <c r="W5">
-        <v>-0.4531898842158037</v>
+        <v>-0.46915508490039931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1247,26 +1320,35 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1">
+        <v>0.4</v>
+      </c>
+      <c r="D1">
+        <v>0.8</v>
+      </c>
+      <c r="E1">
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1274,10 +1356,19 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6.7986997775525911E-17</v>
+      </c>
+      <c r="D2">
+        <v>1.3597399555105182E-16</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1285,10 +1376,19 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3.3993498887762956E-17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1298,8 +1398,17 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1307,6 +1416,15 @@
         <v>1</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1319,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
@@ -1347,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>0.49999955089165599</v>
+        <v>0.48106324262704242</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1367,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24999986435024873</v>
+        <v>0.24687687880381498</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1387,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.49999960702311436</v>
+        <v>0.69561072967063509</v>
       </c>
       <c r="E4">
-        <v>1.0000009211511154</v>
+        <v>0.62836872200078975</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1404,10 +1522,125 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.99999992949701144</v>
+        <v>-0.97493687215605451</v>
       </c>
       <c r="E5">
-        <v>0.99999993477413007</v>
+        <v>0.95339878896398733</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>2.8800449743390965E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>0.50509378836733443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1.2133358649639586E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>7.2017297682751277E-5</v>
+      </c>
+      <c r="C8">
+        <v>1.4403459536550255E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>6.2184419952668641E-6</v>
+      </c>
+      <c r="C9">
+        <v>1.2436883990533733E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1.4455369935836761E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.4455369935836761E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1.0223128039325106E-4</v>
+      </c>
+      <c r="C11">
+        <v>1.1628347024258204E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2399,7 +2632,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2432,7 +2665,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1E-10</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2448,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2456,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2464,7 +2697,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>100000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2472,7 +2705,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="2">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2792,64 +3025,64 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-9.8096860703257266E-2</v>
+        <v>-9.8415630865711395E-2</v>
       </c>
       <c r="E2">
-        <v>-0.19358269861863692</v>
+        <v>-0.19421341855574617</v>
       </c>
       <c r="F2">
-        <v>-0.28635898800690379</v>
+        <v>-0.28729355925265893</v>
       </c>
       <c r="G2">
-        <v>-0.37633433539069022</v>
+        <v>-0.37756345942282005</v>
       </c>
       <c r="H2">
-        <v>-0.46342341292075317</v>
+        <v>-0.4649366493466236</v>
       </c>
       <c r="I2">
-        <v>-0.54755085190618946</v>
+        <v>-0.5493367221306048</v>
       </c>
       <c r="J2">
-        <v>-0.62865001824123434</v>
+        <v>-0.63069609006755056</v>
       </c>
       <c r="K2">
-        <v>-0.70666652165120414</v>
+        <v>-0.70895953801899125</v>
       </c>
       <c r="L2">
-        <v>-0.78155688393986367</v>
+        <v>-0.78408287327487469</v>
       </c>
       <c r="M2">
-        <v>-0.85329152390132901</v>
+        <v>-0.85603594995930821</v>
       </c>
       <c r="N2">
-        <v>-0.92185320131224646</v>
+        <v>-0.92480109285265377</v>
       </c>
       <c r="O2">
-        <v>-0.98723937397358419</v>
+        <v>-0.9903754864911255</v>
       </c>
       <c r="P2">
-        <v>-1.0494603458814094</v>
+        <v>-1.0527692995615539</v>
       </c>
       <c r="Q2">
-        <v>-1.108540953770409</v>
+        <v>-1.1120073944279283</v>
       </c>
       <c r="R2">
-        <v>-1.1645184112032478</v>
+        <v>-1.168127143194938</v>
       </c>
       <c r="S2">
-        <v>-1.2174433540278908</v>
+        <v>-1.2211794869461998</v>
       </c>
       <c r="T2">
-        <v>-1.2673774377782567</v>
+        <v>-1.2712265015727739</v>
       </c>
       <c r="U2">
-        <v>-1.3143938374342135</v>
+        <v>-1.3183419034269952</v>
       </c>
       <c r="V2">
-        <v>-1.358574707161095</v>
+        <v>-1.3626084757375463</v>
       </c>
       <c r="W2">
-        <v>-1.4000112075507467</v>
+        <v>-1.4041180953399601</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -2863,64 +3096,64 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-6.1587401554145875E-2</v>
+        <v>-6.1695580472264637E-2</v>
       </c>
       <c r="E3">
-        <v>-0.12004083855233248</v>
+        <v>-0.12025159100022467</v>
       </c>
       <c r="F3">
-        <v>-0.17540023755289089</v>
+        <v>-0.17570780612319539</v>
       </c>
       <c r="G3">
-        <v>-0.22771867154787728</v>
+        <v>-0.22811720726268783</v>
       </c>
       <c r="H3">
-        <v>-0.27706005482663904</v>
+        <v>-0.27754366929297497</v>
       </c>
       <c r="I3">
-        <v>-0.32349959514602494</v>
+        <v>-0.32406241829767435</v>
       </c>
       <c r="J3">
-        <v>-0.3671212469330089</v>
+        <v>-0.3677574742905928</v>
       </c>
       <c r="K3">
-        <v>-0.40801777359968872</v>
+        <v>-0.40872171608120611</v>
       </c>
       <c r="L3">
-        <v>-0.44628821230622345</v>
+        <v>-0.44705433466919547</v>
       </c>
       <c r="M3">
-        <v>-0.4820377030316837</v>
+        <v>-0.48286066269974875</v>
       </c>
       <c r="N3">
-        <v>-0.51537509656286695</v>
+        <v>-0.51624977105786596</v>
       </c>
       <c r="O3">
-        <v>-0.54641269326412156</v>
+        <v>-0.54733420681301193</v>
       </c>
       <c r="P3">
-        <v>-0.57526409910594489</v>
+        <v>-0.57622783863033211</v>
       </c>
       <c r="Q3">
-        <v>-0.6020439849716317</v>
+        <v>-0.60304561487847708</v>
       </c>
       <c r="R3">
-        <v>-0.62686625677270846</v>
+        <v>-0.62790172449432446</v>
       </c>
       <c r="S3">
-        <v>-0.64984390646681456</v>
+        <v>-0.65090944702397735</v>
       </c>
       <c r="T3">
-        <v>-0.67108752210528677</v>
+        <v>-0.67217965509992694</v>
       </c>
       <c r="U3">
-        <v>-0.69070526398632792</v>
+        <v>-0.69182079016701059</v>
       </c>
       <c r="V3">
-        <v>-0.70880170655550589</v>
+        <v>-0.70993769854923061</v>
       </c>
       <c r="W3">
-        <v>-0.72547791648627724</v>
+        <v>-0.72663170963117274</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -2934,64 +3167,64 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.4298724984157913E-2</v>
+        <v>7.7639211246089856E-2</v>
       </c>
       <c r="E4">
-        <v>0.15583017777274211</v>
+        <v>0.14472504847124545</v>
       </c>
       <c r="F4">
-        <v>0.21690490868254098</v>
+        <v>0.20302845631162525</v>
       </c>
       <c r="G4">
-        <v>0.26929386981751324</v>
+        <v>0.25393703305900761</v>
       </c>
       <c r="H4">
-        <v>0.31438378124186483</v>
+        <v>0.29855749804680276</v>
       </c>
       <c r="I4">
-        <v>0.35328206983125265</v>
+        <v>0.33778725020176992</v>
       </c>
       <c r="J4">
-        <v>0.38688640534936258</v>
+        <v>0.37236316575682393</v>
       </c>
       <c r="K4">
-        <v>0.41593542444424669</v>
+        <v>0.40289805134748413</v>
       </c>
       <c r="L4">
-        <v>0.44104335596981026</v>
+        <v>0.42990615842655922</v>
       </c>
       <c r="M4">
-        <v>0.46272709039224136</v>
+        <v>0.45382343385594281</v>
       </c>
       <c r="N4">
-        <v>0.48142482308385948</v>
+        <v>0.47502183439538348</v>
       </c>
       <c r="O4">
-        <v>0.49751167056638324</v>
+        <v>0.49382137920476943</v>
       </c>
       <c r="P4">
-        <v>0.51131032778079588</v>
+        <v>0.51049863814483687</v>
       </c>
       <c r="Q4">
-        <v>0.52310066833609625</v>
+        <v>0.52529432069690762</v>
       </c>
       <c r="R4">
-        <v>0.53312613264020814</v>
+        <v>0.53841853990578037</v>
       </c>
       <c r="S4">
-        <v>0.54159995240717318</v>
+        <v>0.55005582014022014</v>
       </c>
       <c r="T4">
-        <v>0.54870913219342587</v>
+        <v>0.56036848504203962</v>
       </c>
       <c r="U4">
-        <v>0.55461867220529804</v>
+        <v>0.56950009509884514</v>
       </c>
       <c r="V4">
-        <v>0.55947413432890492</v>
+        <v>0.5775776982012687</v>
       </c>
       <c r="W4">
-        <v>0.56340459839142198</v>
+        <v>0.58471425529729304</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3005,64 +3238,64 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-7.2357196760127307E-2</v>
+        <v>-7.2980348206178186E-2</v>
       </c>
       <c r="E5">
-        <v>-0.14506742586085244</v>
+        <v>-0.14602894484549481</v>
       </c>
       <c r="F5">
-        <v>-0.21798104109603891</v>
+        <v>-0.21903139734662802</v>
       </c>
       <c r="G5">
-        <v>-0.29093615594545746</v>
+        <v>-0.29186239678888332</v>
       </c>
       <c r="H5">
-        <v>-0.36376443715517431</v>
+        <v>-0.36438997011105467</v>
       </c>
       <c r="I5">
-        <v>-0.43629390061517315</v>
+        <v>-0.4364779942273927</v>
       </c>
       <c r="J5">
-        <v>-0.50835292797579545</v>
+        <v>-0.50798923604580948</v>
       </c>
       <c r="K5">
-        <v>-0.57977180300369424</v>
+        <v>-0.57878698389398842</v>
       </c>
       <c r="L5">
-        <v>-0.65038541624265511</v>
+        <v>-0.64873713558317958</v>
       </c>
       <c r="M5">
-        <v>-0.72003407766741045</v>
+        <v>-0.71770927071314694</v>
       </c>
       <c r="N5">
-        <v>-0.78856537738409305</v>
+        <v>-0.78557807685706316</v>
       </c>
       <c r="O5">
-        <v>-0.85583465498946876</v>
+        <v>-0.85222410981586638</v>
       </c>
       <c r="P5">
-        <v>-0.92170632771446126</v>
+        <v>-0.91753476827466685</v>
       </c>
       <c r="Q5">
-        <v>-0.98605422759859418</v>
+        <v>-0.98140489075521198</v>
       </c>
       <c r="R5">
-        <v>-1.0487625665459261</v>
+        <v>-1.0437374061694207</v>
       </c>
       <c r="S5">
-        <v>-1.1097262213883432</v>
+        <v>-1.104443833661269</v>
       </c>
       <c r="T5">
-        <v>-1.1688514044531102</v>
+        <v>-1.1634446725731808</v>
       </c>
       <c r="U5">
-        <v>-1.2260558935117514</v>
+        <v>-1.2206698155918494</v>
       </c>
       <c r="V5">
-        <v>-1.2812694177964112</v>
+        <v>-1.2760587016112892</v>
       </c>
       <c r="W5">
-        <v>-1.3344337856822786</v>
+        <v>-1.3295606106401805</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="25605" windowHeight="16005" tabRatio="644" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -44,33 +44,12 @@
     <t>kk_max</t>
   </si>
   <si>
-    <t>SystematicName</t>
-  </si>
-  <si>
-    <t>StandardName</t>
-  </si>
-  <si>
-    <t>DegradationRate</t>
-  </si>
-  <si>
-    <t>YOR028C</t>
-  </si>
-  <si>
-    <t>YPR104C</t>
-  </si>
-  <si>
-    <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
     <t>optimization_parameter</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>MaxIter</t>
   </si>
   <si>
@@ -83,21 +62,12 @@
     <t>TolX</t>
   </si>
   <si>
-    <t>YLR131C</t>
-  </si>
-  <si>
     <t>ACE2</t>
   </si>
   <si>
-    <t>production_rates</t>
-  </si>
-  <si>
     <t>AFT2</t>
   </si>
   <si>
-    <t>YPL202C</t>
-  </si>
-  <si>
     <t>Strain</t>
   </si>
   <si>
@@ -122,13 +92,31 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>simtime</t>
-  </si>
-  <si>
-    <t>estimateParams</t>
-  </si>
-  <si>
-    <t>makeGraphs</t>
+    <t>regulators/controllers</t>
+  </si>
+  <si>
+    <t>threshold_b</t>
+  </si>
+  <si>
+    <t>estimate_params</t>
+  </si>
+  <si>
+    <t>make_graphs</t>
+  </si>
+  <si>
+    <t>expression_timepoints</t>
+  </si>
+  <si>
+    <t>simulation_timepoints</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>production_rate</t>
+  </si>
+  <si>
+    <t>degradation_rate</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -212,14 +200,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -236,6 +223,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,189 +630,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="B2">
         <v>0.5</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="5"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-      <c r="H17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-      <c r="H18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20" s="4"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="H22"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E24" s="5"/>
+      <c r="G22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -835,232 +791,223 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.8415630865711395E-2</v>
       </c>
       <c r="D2">
-        <v>-9.8415630865711395E-2</v>
+        <v>-0.19421341855574617</v>
       </c>
       <c r="E2">
-        <v>-0.19421341855574617</v>
+        <v>-0.28729355925265893</v>
       </c>
       <c r="F2">
-        <v>-0.28729355925265893</v>
+        <v>-0.37756345942282005</v>
       </c>
       <c r="G2">
-        <v>-0.37756345942282005</v>
+        <v>-0.4649366493466236</v>
       </c>
       <c r="H2">
-        <v>-0.4649366493466236</v>
+        <v>-0.5493367221306048</v>
       </c>
       <c r="I2">
-        <v>-0.5493367221306048</v>
+        <v>-0.63069609006755056</v>
       </c>
       <c r="J2">
-        <v>-0.63069609006755056</v>
+        <v>-0.70895953801899125</v>
       </c>
       <c r="K2">
-        <v>-0.70895953801899125</v>
+        <v>-0.78408287327487469</v>
       </c>
       <c r="L2">
-        <v>-0.78408287327487469</v>
+        <v>-0.85603594995930821</v>
       </c>
       <c r="M2">
-        <v>-0.85603594995930821</v>
+        <v>-0.92480109285265377</v>
       </c>
       <c r="N2">
-        <v>-0.92480109285265377</v>
+        <v>-0.9903754864911255</v>
       </c>
       <c r="O2">
-        <v>-0.9903754864911255</v>
+        <v>-1.0527692995615539</v>
       </c>
       <c r="P2">
-        <v>-1.0527692995615539</v>
+        <v>-1.1120073944279283</v>
       </c>
       <c r="Q2">
-        <v>-1.1120073944279283</v>
+        <v>-1.168127143194938</v>
       </c>
       <c r="R2">
-        <v>-1.168127143194938</v>
+        <v>-1.2211794869461998</v>
       </c>
       <c r="S2">
-        <v>-1.2211794869461998</v>
+        <v>-1.2712265015727739</v>
       </c>
       <c r="T2">
-        <v>-1.2712265015727739</v>
+        <v>-1.3183419034269952</v>
       </c>
       <c r="U2">
-        <v>-1.3183419034269952</v>
+        <v>-1.3626084757375463</v>
       </c>
       <c r="V2">
-        <v>-1.3626084757375463</v>
-      </c>
-      <c r="W2">
         <v>-1.4041180953399601</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.1695580472264637E-2</v>
       </c>
       <c r="D3">
-        <v>-6.1695580472264637E-2</v>
+        <v>-0.12025159100022467</v>
       </c>
       <c r="E3">
-        <v>-0.12025159100022467</v>
+        <v>-0.17570780612319539</v>
       </c>
       <c r="F3">
-        <v>-0.17570780612319539</v>
+        <v>-0.22811720726268783</v>
       </c>
       <c r="G3">
-        <v>-0.22811720726268783</v>
+        <v>-0.27754366929297497</v>
       </c>
       <c r="H3">
-        <v>-0.27754366929297497</v>
+        <v>-0.32406241829767435</v>
       </c>
       <c r="I3">
-        <v>-0.32406241829767435</v>
+        <v>-0.3677574742905928</v>
       </c>
       <c r="J3">
-        <v>-0.3677574742905928</v>
+        <v>-0.40872171608120611</v>
       </c>
       <c r="K3">
-        <v>-0.40872171608120611</v>
+        <v>-0.44705433466919547</v>
       </c>
       <c r="L3">
-        <v>-0.44705433466919547</v>
+        <v>-0.48286066269974875</v>
       </c>
       <c r="M3">
-        <v>-0.48286066269974875</v>
+        <v>-0.51624977105786596</v>
       </c>
       <c r="N3">
-        <v>-0.51624977105786596</v>
+        <v>-0.54733420681301193</v>
       </c>
       <c r="O3">
-        <v>-0.54733420681301193</v>
+        <v>-0.57622783863033211</v>
       </c>
       <c r="P3">
-        <v>-0.57622783863033211</v>
+        <v>-0.60304561487847708</v>
       </c>
       <c r="Q3">
-        <v>-0.60304561487847708</v>
+        <v>-0.62790172449432446</v>
       </c>
       <c r="R3">
-        <v>-0.62790172449432446</v>
+        <v>-0.65090944702397735</v>
       </c>
       <c r="S3">
-        <v>-0.65090944702397735</v>
+        <v>-0.67217965509992694</v>
       </c>
       <c r="T3">
-        <v>-0.67217965509992694</v>
+        <v>-0.69182079016701059</v>
       </c>
       <c r="U3">
-        <v>-0.69182079016701059</v>
+        <v>-0.70993769854923061</v>
       </c>
       <c r="V3">
-        <v>-0.70993769854923061</v>
-      </c>
-      <c r="W3">
         <v>-0.72663170963117274</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1123,78 +1070,72 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-3.908229913513931E-2</v>
       </c>
       <c r="D5">
-        <v>-3.908229913513931E-2</v>
+        <v>-7.6100322098197407E-2</v>
       </c>
       <c r="E5">
-        <v>-7.6100322098197407E-2</v>
+        <v>-0.11112054431760732</v>
       </c>
       <c r="F5">
-        <v>-0.11112054431760732</v>
+        <v>-0.14421175778249326</v>
       </c>
       <c r="G5">
-        <v>-0.14421175778249326</v>
+        <v>-0.17544416984513003</v>
       </c>
       <c r="H5">
-        <v>-0.17544416984513003</v>
+        <v>-0.2048894472936392</v>
       </c>
       <c r="I5">
-        <v>-0.2048894472936392</v>
+        <v>-0.23261983766255628</v>
       </c>
       <c r="J5">
-        <v>-0.23261983766255628</v>
+        <v>-0.25870816923429668</v>
       </c>
       <c r="K5">
-        <v>-0.25870816923429668</v>
+        <v>-0.28322705890386018</v>
       </c>
       <c r="L5">
-        <v>-0.28322705890386018</v>
+        <v>-0.3062489023647269</v>
       </c>
       <c r="M5">
-        <v>-0.3062489023647269</v>
+        <v>-0.32784518455607942</v>
       </c>
       <c r="N5">
-        <v>-0.32784518455607942</v>
+        <v>-0.34808648361082384</v>
       </c>
       <c r="O5">
-        <v>-0.34808648361082384</v>
+        <v>-0.36704189081996774</v>
       </c>
       <c r="P5">
-        <v>-0.36704189081996774</v>
+        <v>-0.38477904199353069</v>
       </c>
       <c r="Q5">
-        <v>-0.38477904199353069</v>
+        <v>-0.40136364593067475</v>
       </c>
       <c r="R5">
-        <v>-0.40136364593067475</v>
+        <v>-0.41685954866879965</v>
       </c>
       <c r="S5">
-        <v>-0.41685954866879965</v>
+        <v>-0.43132836339590414</v>
       </c>
       <c r="T5">
-        <v>-0.43132836339590414</v>
+        <v>-0.44482956705563848</v>
       </c>
       <c r="U5">
-        <v>-0.44482956705563848</v>
+        <v>-0.45742022068355997</v>
       </c>
       <c r="V5">
-        <v>-0.45742022068355997</v>
-      </c>
-      <c r="W5">
         <v>-0.46915508490039931</v>
       </c>
     </row>
@@ -1205,63 +1146,57 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1269,15 +1204,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1289,16 +1221,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1307,9 +1236,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1320,63 +1246,57 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0.4</v>
       </c>
       <c r="C1">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D1">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E1">
-        <v>1.2</v>
-      </c>
-      <c r="F1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>6.7986997775525911E-17</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
-        <v>1.3597399555105182E-16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
-        <v>3.3993498887762956E-17</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1384,15 +1304,12 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
@@ -1404,16 +1321,13 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1422,9 +1336,6 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
         <v>0</v>
       </c>
     </row>
@@ -1445,13 +1356,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1462,7 +1373,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.48106324262704242</v>
@@ -1479,7 +1390,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1545,15 +1456,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>2.8800449743390965E-5</v>
@@ -1561,7 +1472,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0.50509378836733443</v>
@@ -1569,7 +1480,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1577,7 +1488,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1585,23 +1496,23 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>7.2017297682751277E-5</v>
@@ -1612,7 +1523,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>6.2184419952668641E-6</v>
@@ -1650,159 +1561,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="C22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -1814,20 +1692,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0.4</v>
       </c>
       <c r="C1" s="11">
         <v>0.4</v>
@@ -1836,7 +1714,7 @@
         <v>0.4</v>
       </c>
       <c r="E1" s="13">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F1" s="14">
         <v>0.8</v>
@@ -1845,16 +1723,16 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="16">
-        <v>0.8</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I1" s="17">
         <v>1.2000000000000002</v>
       </c>
       <c r="J1" s="18">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="K1" s="19">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="L1" s="20">
         <v>1.6</v>
@@ -1862,17 +1740,14 @@
       <c r="M1" s="21">
         <v>1.6</v>
       </c>
-      <c r="N1" s="22">
-        <v>1.6</v>
-      </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="11">
         <v>-0.37633430629205178</v>
@@ -1881,7 +1756,7 @@
         <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="13">
-        <v>-0.37633430629205178</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="14">
         <v>-0.70666646734338179</v>
@@ -1890,7 +1765,7 @@
         <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="16">
-        <v>-0.70666646734338179</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="17">
         <v>-0.98723929967009216</v>
@@ -1899,7 +1774,7 @@
         <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="19">
-        <v>-0.98723929967009216</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="20">
         <v>-1.2174432654761544</v>
@@ -1907,16 +1782,13 @@
       <c r="M2" s="21">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="22">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="11">
         <v>-0.22771865423983556</v>
@@ -1925,7 +1797,7 @@
         <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="13">
-        <v>-0.22771865423983556</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="14">
         <v>-0.40801774302656463</v>
@@ -1934,7 +1806,7 @@
         <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="16">
-        <v>-0.40801774302656463</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="17">
         <v>-0.5464126532391167</v>
@@ -1943,7 +1815,7 @@
         <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="19">
-        <v>-0.5464126532391167</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="20">
         <v>-0.64984386018298912</v>
@@ -1951,16 +1823,13 @@
       <c r="M3" s="21">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="22">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="11">
         <v>0.26929382132237512</v>
@@ -1969,7 +1838,7 @@
         <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="13">
-        <v>0.26929382132237512</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="14">
         <v>0.41593537248224854</v>
@@ -1978,7 +1847,7 @@
         <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="16">
-        <v>0.41593537248224854</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="17">
         <v>0.49751163358969142</v>
@@ -1987,7 +1856,7 @@
         <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="19">
-        <v>0.49751163358969142</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="20">
         <v>0.54159993841241572</v>
@@ -1995,16 +1864,13 @@
       <c r="M4" s="21">
         <v>0.54159993841241572</v>
       </c>
-      <c r="N4" s="22">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="11">
         <v>-0.29093615522070321</v>
@@ -2013,7 +1879,7 @@
         <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="13">
-        <v>-0.29093615522070321</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="14">
         <v>-0.57977180156386388</v>
@@ -2022,7 +1888,7 @@
         <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="16">
-        <v>-0.57977180156386388</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="17">
         <v>-0.85583465653557034</v>
@@ -2031,7 +1897,7 @@
         <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="19">
-        <v>-0.85583465653557034</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="20">
         <v>-1.1097262320569594</v>
@@ -2039,37 +1905,34 @@
       <c r="M5" s="21">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="N5" s="22">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="J10" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="I18" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H18" s="2"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="2"/>
-      <c r="M20" s="2"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="L20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2081,282 +1944,267 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10">
+        <v>26</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="D1" s="10">
+      <c r="C1" s="9">
         <v>0.4</v>
       </c>
-      <c r="E1" s="10">
+      <c r="D1" s="9">
         <v>0.4</v>
       </c>
-      <c r="F1" s="10">
+      <c r="E1" s="9">
         <v>0.8</v>
       </c>
-      <c r="G1" s="10">
+      <c r="F1" s="9">
         <v>0.8</v>
       </c>
-      <c r="H1" s="10">
+      <c r="G1" s="9">
         <v>0.8</v>
       </c>
-      <c r="I1" s="10">
+      <c r="H1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="J1" s="10">
+      <c r="I1" s="9">
         <v>1.2000000000000002</v>
       </c>
-      <c r="K1" s="10">
+      <c r="J1" s="9">
         <v>1.2</v>
       </c>
-      <c r="L1" s="10">
+      <c r="K1" s="9">
         <v>1.6</v>
       </c>
-      <c r="M1" s="10">
+      <c r="L1" s="9">
         <v>1.6</v>
       </c>
-      <c r="N1" s="10">
+      <c r="M1" s="9">
         <v>1.6</v>
       </c>
-      <c r="O1" s="7"/>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="10">
+      <c r="D2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="10">
+      <c r="F2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="10">
+      <c r="G2" s="9">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="I2" s="10">
+      <c r="H2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="10">
+      <c r="I2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="10">
+      <c r="J2" s="9">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="L2" s="10">
+      <c r="K2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="10">
+      <c r="L2" s="9">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="N2" s="10">
+      <c r="M2" s="9">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="10">
+      <c r="D3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="E3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="10">
+      <c r="F3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="10">
+      <c r="G3" s="9">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="I3" s="10">
+      <c r="H3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="10">
+      <c r="J3" s="9">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="L3" s="10">
+      <c r="K3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="10">
+      <c r="L3" s="9">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="N3" s="10">
+      <c r="M3" s="9">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="F5" s="10">
+      <c r="E5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="10">
+      <c r="F5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="10">
+      <c r="G5" s="9">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="I5" s="10">
+      <c r="H5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="10">
+      <c r="J5" s="9">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="L5" s="10">
+      <c r="K5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="10">
+      <c r="L5" s="9">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="N5" s="10">
+      <c r="M5" s="9">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L7" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="I20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="22" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="H20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2370,12 +2218,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
@@ -2396,14 +2244,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -2413,8 +2261,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2430,8 +2278,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2447,7 +2295,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4">
@@ -2464,7 +2312,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4">
@@ -2493,7 +2341,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2518,14 +2366,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
+      <c r="A1" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2553,7 +2401,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2570,7 +2418,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -2632,7 +2480,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2642,22 +2490,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2678,7 +2526,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
         <v>1000000</v>
@@ -2686,7 +2534,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2694,7 +2542,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
         <v>1000000</v>
@@ -2702,7 +2550,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>1.0000000000000001E-5</v>
@@ -2710,49 +2558,49 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="9">
+        <v>22</v>
+      </c>
+      <c r="B9" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="9">
+        <v>23</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="9">
+        <v>16</v>
+      </c>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.4</v>
       </c>
       <c r="C13">
@@ -2767,20 +2615,20 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="8">
+        <v>17</v>
+      </c>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
       <c r="C15">
@@ -2789,9 +2637,9 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7">
         <v>0</v>
       </c>
       <c r="C16">
@@ -2800,7 +2648,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2878,20 +2726,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>9</v>
+      <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2899,7 +2750,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2935,366 +2786,351 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W5"/>
+      <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="F1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="J1">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="O1">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P1">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="R1">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S1">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T1">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="U1">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V1">
-        <v>1.9</v>
-      </c>
-      <c r="W1">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-9.8415630865711395E-2</v>
       </c>
       <c r="D2">
-        <v>-9.8415630865711395E-2</v>
+        <v>-0.19421341855574617</v>
       </c>
       <c r="E2">
-        <v>-0.19421341855574617</v>
+        <v>-0.28729355925265893</v>
       </c>
       <c r="F2">
-        <v>-0.28729355925265893</v>
+        <v>-0.37756345942282005</v>
       </c>
       <c r="G2">
-        <v>-0.37756345942282005</v>
+        <v>-0.4649366493466236</v>
       </c>
       <c r="H2">
-        <v>-0.4649366493466236</v>
+        <v>-0.5493367221306048</v>
       </c>
       <c r="I2">
-        <v>-0.5493367221306048</v>
+        <v>-0.63069609006755056</v>
       </c>
       <c r="J2">
-        <v>-0.63069609006755056</v>
+        <v>-0.70895953801899125</v>
       </c>
       <c r="K2">
-        <v>-0.70895953801899125</v>
+        <v>-0.78408287327487469</v>
       </c>
       <c r="L2">
-        <v>-0.78408287327487469</v>
+        <v>-0.85603594995930821</v>
       </c>
       <c r="M2">
-        <v>-0.85603594995930821</v>
+        <v>-0.92480109285265377</v>
       </c>
       <c r="N2">
-        <v>-0.92480109285265377</v>
+        <v>-0.9903754864911255</v>
       </c>
       <c r="O2">
-        <v>-0.9903754864911255</v>
+        <v>-1.0527692995615539</v>
       </c>
       <c r="P2">
-        <v>-1.0527692995615539</v>
+        <v>-1.1120073944279283</v>
       </c>
       <c r="Q2">
-        <v>-1.1120073944279283</v>
+        <v>-1.168127143194938</v>
       </c>
       <c r="R2">
-        <v>-1.168127143194938</v>
+        <v>-1.2211794869461998</v>
       </c>
       <c r="S2">
-        <v>-1.2211794869461998</v>
+        <v>-1.2712265015727739</v>
       </c>
       <c r="T2">
-        <v>-1.2712265015727739</v>
+        <v>-1.3183419034269952</v>
       </c>
       <c r="U2">
-        <v>-1.3183419034269952</v>
+        <v>-1.3626084757375463</v>
       </c>
       <c r="V2">
-        <v>-1.3626084757375463</v>
-      </c>
-      <c r="W2">
         <v>-1.4041180953399601</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-6.1695580472264637E-2</v>
       </c>
       <c r="D3">
-        <v>-6.1695580472264637E-2</v>
+        <v>-0.12025159100022467</v>
       </c>
       <c r="E3">
-        <v>-0.12025159100022467</v>
+        <v>-0.17570780612319539</v>
       </c>
       <c r="F3">
-        <v>-0.17570780612319539</v>
+        <v>-0.22811720726268783</v>
       </c>
       <c r="G3">
-        <v>-0.22811720726268783</v>
+        <v>-0.27754366929297497</v>
       </c>
       <c r="H3">
-        <v>-0.27754366929297497</v>
+        <v>-0.32406241829767435</v>
       </c>
       <c r="I3">
-        <v>-0.32406241829767435</v>
+        <v>-0.3677574742905928</v>
       </c>
       <c r="J3">
-        <v>-0.3677574742905928</v>
+        <v>-0.40872171608120611</v>
       </c>
       <c r="K3">
-        <v>-0.40872171608120611</v>
+        <v>-0.44705433466919547</v>
       </c>
       <c r="L3">
-        <v>-0.44705433466919547</v>
+        <v>-0.48286066269974875</v>
       </c>
       <c r="M3">
-        <v>-0.48286066269974875</v>
+        <v>-0.51624977105786596</v>
       </c>
       <c r="N3">
-        <v>-0.51624977105786596</v>
+        <v>-0.54733420681301193</v>
       </c>
       <c r="O3">
-        <v>-0.54733420681301193</v>
+        <v>-0.57622783863033211</v>
       </c>
       <c r="P3">
-        <v>-0.57622783863033211</v>
+        <v>-0.60304561487847708</v>
       </c>
       <c r="Q3">
-        <v>-0.60304561487847708</v>
+        <v>-0.62790172449432446</v>
       </c>
       <c r="R3">
-        <v>-0.62790172449432446</v>
+        <v>-0.65090944702397735</v>
       </c>
       <c r="S3">
-        <v>-0.65090944702397735</v>
+        <v>-0.67217965509992694</v>
       </c>
       <c r="T3">
-        <v>-0.67217965509992694</v>
+        <v>-0.69182079016701059</v>
       </c>
       <c r="U3">
-        <v>-0.69182079016701059</v>
+        <v>-0.70993769854923061</v>
       </c>
       <c r="V3">
-        <v>-0.70993769854923061</v>
-      </c>
-      <c r="W3">
         <v>-0.72663170963117274</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>7.7639211246089856E-2</v>
       </c>
       <c r="D4">
-        <v>7.7639211246089856E-2</v>
+        <v>0.14472504847124545</v>
       </c>
       <c r="E4">
-        <v>0.14472504847124545</v>
+        <v>0.20302845631162525</v>
       </c>
       <c r="F4">
-        <v>0.20302845631162525</v>
+        <v>0.25393703305900761</v>
       </c>
       <c r="G4">
-        <v>0.25393703305900761</v>
+        <v>0.29855749804680276</v>
       </c>
       <c r="H4">
-        <v>0.29855749804680276</v>
+        <v>0.33778725020176992</v>
       </c>
       <c r="I4">
-        <v>0.33778725020176992</v>
+        <v>0.37236316575682393</v>
       </c>
       <c r="J4">
-        <v>0.37236316575682393</v>
+        <v>0.40289805134748413</v>
       </c>
       <c r="K4">
-        <v>0.40289805134748413</v>
+        <v>0.42990615842655922</v>
       </c>
       <c r="L4">
-        <v>0.42990615842655922</v>
+        <v>0.45382343385594281</v>
       </c>
       <c r="M4">
-        <v>0.45382343385594281</v>
+        <v>0.47502183439538348</v>
       </c>
       <c r="N4">
-        <v>0.47502183439538348</v>
+        <v>0.49382137920476943</v>
       </c>
       <c r="O4">
-        <v>0.49382137920476943</v>
+        <v>0.51049863814483687</v>
       </c>
       <c r="P4">
-        <v>0.51049863814483687</v>
+        <v>0.52529432069690762</v>
       </c>
       <c r="Q4">
-        <v>0.52529432069690762</v>
+        <v>0.53841853990578037</v>
       </c>
       <c r="R4">
-        <v>0.53841853990578037</v>
+        <v>0.55005582014022014</v>
       </c>
       <c r="S4">
-        <v>0.55005582014022014</v>
+        <v>0.56036848504203962</v>
       </c>
       <c r="T4">
-        <v>0.56036848504203962</v>
+        <v>0.56950009509884514</v>
       </c>
       <c r="U4">
-        <v>0.56950009509884514</v>
+        <v>0.5775776982012687</v>
       </c>
       <c r="V4">
-        <v>0.5775776982012687</v>
-      </c>
-      <c r="W4">
         <v>0.58471425529729304</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-7.2980348206178186E-2</v>
       </c>
       <c r="D5">
-        <v>-7.2980348206178186E-2</v>
+        <v>-0.14602894484549481</v>
       </c>
       <c r="E5">
-        <v>-0.14602894484549481</v>
+        <v>-0.21903139734662802</v>
       </c>
       <c r="F5">
-        <v>-0.21903139734662802</v>
+        <v>-0.29186239678888332</v>
       </c>
       <c r="G5">
-        <v>-0.29186239678888332</v>
+        <v>-0.36438997011105467</v>
       </c>
       <c r="H5">
-        <v>-0.36438997011105467</v>
+        <v>-0.4364779942273927</v>
       </c>
       <c r="I5">
-        <v>-0.4364779942273927</v>
+        <v>-0.50798923604580948</v>
       </c>
       <c r="J5">
-        <v>-0.50798923604580948</v>
+        <v>-0.57878698389398842</v>
       </c>
       <c r="K5">
-        <v>-0.57878698389398842</v>
+        <v>-0.64873713558317958</v>
       </c>
       <c r="L5">
-        <v>-0.64873713558317958</v>
+        <v>-0.71770927071314694</v>
       </c>
       <c r="M5">
-        <v>-0.71770927071314694</v>
+        <v>-0.78557807685706316</v>
       </c>
       <c r="N5">
-        <v>-0.78557807685706316</v>
+        <v>-0.85222410981586638</v>
       </c>
       <c r="O5">
-        <v>-0.85222410981586638</v>
+        <v>-0.91753476827466685</v>
       </c>
       <c r="P5">
-        <v>-0.91753476827466685</v>
+        <v>-0.98140489075521198</v>
       </c>
       <c r="Q5">
-        <v>-0.98140489075521198</v>
+        <v>-1.0437374061694207</v>
       </c>
       <c r="R5">
-        <v>-1.0437374061694207</v>
+        <v>-1.104443833661269</v>
       </c>
       <c r="S5">
-        <v>-1.104443833661269</v>
+        <v>-1.1634446725731808</v>
       </c>
       <c r="T5">
-        <v>-1.1634446725731808</v>
+        <v>-1.2206698155918494</v>
       </c>
       <c r="U5">
-        <v>-1.2206698155918494</v>
+        <v>-1.2760587016112892</v>
       </c>
       <c r="V5">
-        <v>-1.2760587016112892</v>
-      </c>
-      <c r="W5">
         <v>-1.3295606106401805</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>Model</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -2479,8 +2482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2558,10 +2561,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>dcin5</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>threshold_b</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -647,10 +647,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -804,7 +804,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1159,7 +1159,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1259,7 +1259,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1351,15 +1351,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1459,15 +1457,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>2.8800449743390965E-5</v>
@@ -1475,7 +1473,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.50509378836733443</v>
@@ -1483,7 +1481,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1491,7 +1489,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1499,18 +1497,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1579,10 +1577,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1705,7 +1703,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1957,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2221,7 +2219,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2246,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2343,9 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2370,7 +2366,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2482,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2561,7 +2557,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2569,7 +2565,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8">
         <v>1</v>
@@ -2577,7 +2573,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2601,7 +2597,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="8">
         <v>0.4</v>
@@ -2651,7 +2647,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2730,17 +2726,17 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2799,7 +2795,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>CIN5</t>
   </si>
@@ -146,10 +146,13 @@
     <t>dcin5 SSE</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>L_curve</t>
+  </si>
+  <si>
+    <t>production_function</t>
   </si>
 </sst>
 </file>
@@ -164,6 +167,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -173,6 +177,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1351,13 +1356,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2246,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2366,7 +2371,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2476,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2556,8 +2561,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>38</v>
+      <c r="A8" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2565,15 +2570,15 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8">
         <v>1</v>
@@ -2581,15 +2586,15 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -2597,119 +2602,127 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>0.4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>0.8</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>1.2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R18">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S18">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T18">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U18">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V18">
         <v>2</v>
       </c>
     </row>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -140,12 +140,6 @@
     <t>Gene</t>
   </si>
   <si>
-    <t>wt SSE</t>
-  </si>
-  <si>
-    <t>dcin5 SSE</t>
-  </si>
-  <si>
     <t>targets/regulators</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>production_function</t>
+  </si>
+  <si>
+    <t>wt MSE</t>
+  </si>
+  <si>
+    <t>dcin5 MSE</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1362,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1454,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1510,10 +1510,10 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2371,7 +2371,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2483,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2562,7 +2562,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\r\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="11010" yWindow="0" windowWidth="14700" windowHeight="12435" tabRatio="644" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -69,9 +74,6 @@
   </si>
   <si>
     <t>Strain</t>
-  </si>
-  <si>
-    <t>Deletion</t>
   </si>
   <si>
     <t>wt</t>
@@ -311,6 +313,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -652,10 +657,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -809,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1164,7 +1169,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1264,7 +1269,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1362,7 +1367,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1454,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1462,15 +1467,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>2.8800449743390965E-5</v>
@@ -1478,7 +1483,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.50509378836733443</v>
@@ -1486,7 +1491,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1494,7 +1499,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>304</v>
@@ -1502,18 +1507,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1587,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1713,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1960,7 +1965,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2251,7 +2256,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2371,7 +2376,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2481,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2492,27 +2497,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2513,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2528,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2536,7 +2529,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2544,7 +2537,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2552,7 +2545,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2560,57 +2553,57 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
       </c>
       <c r="B14" s="8">
         <v>0.4</v>
@@ -2625,20 +2618,20 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -2649,80 +2642,69 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>23</v>
+      </c>
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
         <v>0.1</v>
       </c>
-      <c r="D18">
+      <c r="D17">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E17">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F18">
+      <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="G18">
+      <c r="G17">
         <v>0.5</v>
       </c>
-      <c r="H18">
+      <c r="H17">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I18">
+      <c r="I17">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J18">
+      <c r="J17">
         <v>0.8</v>
       </c>
-      <c r="K18">
+      <c r="K17">
         <v>0.9</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N18">
+      <c r="N17">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O18">
+      <c r="O17">
         <v>1.3</v>
       </c>
-      <c r="P18">
+      <c r="P17">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q17">
         <v>1.5</v>
       </c>
-      <c r="R18">
+      <c r="R17">
         <v>1.6</v>
       </c>
-      <c r="S18">
+      <c r="S17">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T18">
+      <c r="T17">
         <v>1.8</v>
       </c>
-      <c r="U18">
+      <c r="U17">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V18">
+      <c r="V17">
         <v>2</v>
       </c>
     </row>
@@ -2746,10 +2728,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2808,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
+++ b/test_files/sixteen_tests/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_graph_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\sixteen_tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15280" tabRatio="644" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25358" windowHeight="15278" tabRatio="644" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -25,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" fullPrecision="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -160,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -228,7 +233,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,20 +637,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -653,7 +658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -661,7 +666,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -669,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +683,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,54 +692,54 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D24" s="2"/>
     </row>
   </sheetData>
@@ -751,19 +756,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -831,7 +836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -842,64 +847,64 @@
         <v>-9.8415630865711395E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.19421341855574617</v>
+        <v>-0.194213418555746</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.28729355925265893</v>
+        <v>-0.28729355925265898</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.37756345942282005</v>
+        <v>-0.37756345942281999</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.4649366493466236</v>
+        <v>-0.46493664934662399</v>
       </c>
       <c r="H2" s="1">
-        <v>-0.5493367221306048</v>
+        <v>-0.54933672213060503</v>
       </c>
       <c r="I2" s="1">
-        <v>-0.63069609006755056</v>
+        <v>-0.63069609006755101</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.70895953801899125</v>
+        <v>-0.70895953801899103</v>
       </c>
       <c r="K2" s="1">
-        <v>-0.78408287327487469</v>
+        <v>-0.78408287327487503</v>
       </c>
       <c r="L2" s="1">
-        <v>-0.85603594995930821</v>
+        <v>-0.85603594995930798</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.92480109285265377</v>
+        <v>-0.92480109285265399</v>
       </c>
       <c r="N2" s="1">
-        <v>-0.9903754864911255</v>
+        <v>-0.99037548649112594</v>
       </c>
       <c r="O2" s="1">
-        <v>-1.0527692995615539</v>
+        <v>-1.0527692995615501</v>
       </c>
       <c r="P2" s="1">
-        <v>-1.1120073944279283</v>
+        <v>-1.1120073944279301</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1.168127143194938</v>
+        <v>-1.16812714319494</v>
       </c>
       <c r="R2" s="1">
-        <v>-1.2211794869461998</v>
+        <v>-1.2211794869462</v>
       </c>
       <c r="S2" s="1">
-        <v>-1.2712265015727739</v>
+        <v>-1.27122650157277</v>
       </c>
       <c r="T2" s="1">
-        <v>-1.3183419034269952</v>
+        <v>-1.3183419034270001</v>
       </c>
       <c r="U2" s="1">
-        <v>-1.3626084757375463</v>
+        <v>-1.3626084757375501</v>
       </c>
       <c r="V2" s="1">
-        <v>-1.4041180953399601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.4041180953399599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,67 +912,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-6.1695580472264637E-2</v>
+        <v>-6.1695580472264602E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.12025159100022467</v>
+        <v>-0.12025159100022501</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.17570780612319539</v>
+        <v>-0.175707806123195</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.22811720726268783</v>
+        <v>-0.228117207262688</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.27754366929297497</v>
+        <v>-0.27754366929297503</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.32406241829767435</v>
+        <v>-0.32406241829767402</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.3677574742905928</v>
+        <v>-0.36775747429059302</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.40872171608120611</v>
+        <v>-0.408721716081206</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.44705433466919547</v>
+        <v>-0.44705433466919497</v>
       </c>
       <c r="L3" s="1">
-        <v>-0.48286066269974875</v>
+        <v>-0.48286066269974898</v>
       </c>
       <c r="M3" s="1">
         <v>-0.51624977105786596</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.54733420681301193</v>
+        <v>-0.54733420681301204</v>
       </c>
       <c r="O3" s="1">
-        <v>-0.57622783863033211</v>
+        <v>-0.576227838630332</v>
       </c>
       <c r="P3" s="1">
-        <v>-0.60304561487847708</v>
+        <v>-0.60304561487847697</v>
       </c>
       <c r="Q3" s="1">
-        <v>-0.62790172449432446</v>
+        <v>-0.62790172449432402</v>
       </c>
       <c r="R3" s="1">
-        <v>-0.65090944702397735</v>
+        <v>-0.65090944702397702</v>
       </c>
       <c r="S3" s="1">
-        <v>-0.67217965509992694</v>
+        <v>-0.67217965509992705</v>
       </c>
       <c r="T3" s="1">
-        <v>-0.69182079016701059</v>
+        <v>-0.69182079016701103</v>
       </c>
       <c r="U3" s="1">
-        <v>-0.70993769854923061</v>
+        <v>-0.70993769854923106</v>
       </c>
       <c r="V3" s="1">
-        <v>-0.72663170963117274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.72663170963117296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1043,64 +1048,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-3.908229913513931E-2</v>
+        <v>-3.9082299135139303E-2</v>
       </c>
       <c r="D5" s="1">
         <v>-7.6100322098197407E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.11112054431760732</v>
+        <v>-0.111120544317607</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.14421175778249326</v>
+        <v>-0.14421175778249301</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.17544416984513003</v>
+        <v>-0.17544416984513</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.2048894472936392</v>
+        <v>-0.204889447293639</v>
       </c>
       <c r="I5" s="1">
-        <v>-0.23261983766255628</v>
+        <v>-0.23261983766255601</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.25870816923429668</v>
+        <v>-0.25870816923429701</v>
       </c>
       <c r="K5" s="1">
-        <v>-0.28322705890386018</v>
+        <v>-0.28322705890386002</v>
       </c>
       <c r="L5" s="1">
-        <v>-0.3062489023647269</v>
+        <v>-0.30624890236472702</v>
       </c>
       <c r="M5" s="1">
-        <v>-0.32784518455607942</v>
+        <v>-0.32784518455607897</v>
       </c>
       <c r="N5" s="1">
-        <v>-0.34808648361082384</v>
+        <v>-0.348086483610824</v>
       </c>
       <c r="O5" s="1">
-        <v>-0.36704189081996774</v>
+        <v>-0.36704189081996802</v>
       </c>
       <c r="P5" s="1">
-        <v>-0.38477904199353069</v>
+        <v>-0.38477904199353102</v>
       </c>
       <c r="Q5" s="1">
-        <v>-0.40136364593067475</v>
+        <v>-0.40136364593067497</v>
       </c>
       <c r="R5" s="1">
-        <v>-0.41685954866879965</v>
+        <v>-0.41685954866879998</v>
       </c>
       <c r="S5" s="1">
-        <v>-0.43132836339590414</v>
+        <v>-0.43132836339590402</v>
       </c>
       <c r="T5" s="1">
-        <v>-0.44482956705563848</v>
+        <v>-0.44482956705563798</v>
       </c>
       <c r="U5" s="1">
         <v>-0.45742022068355997</v>
       </c>
       <c r="V5" s="1">
-        <v>-0.46915508490039931</v>
+        <v>-0.46915508490039898</v>
       </c>
     </row>
   </sheetData>
@@ -1114,19 +1119,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1143,15 +1148,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="1">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1160,12 +1165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1177,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1222,19 +1227,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1251,15 +1256,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2" s="1">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -1268,12 +1273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1285,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1330,19 +1335,19 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1359,12 +1364,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>0.48106324262704242</v>
+        <v>0.48106324262704198</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1376,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>0.24687687880381498</v>
+        <v>0.24687687880381501</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -1393,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1404,13 +1409,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>0.69561072967063509</v>
+        <v>0.69561072967063498</v>
       </c>
       <c r="E4" s="1">
-        <v>0.62836872200078975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.62836872200078997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1421,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.97493687215605451</v>
+        <v>-0.97493687215605496</v>
       </c>
       <c r="E5" s="1">
-        <v>0.95339878896398733</v>
+        <v>0.953398788963987</v>
       </c>
     </row>
   </sheetData>
@@ -1438,19 +1443,19 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1458,31 +1463,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="1">
-        <v>2.8800449743390965E-5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>2.8800449743390999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="1">
-        <v>0.50509378836733443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.50509378836733398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>1.2133358649639586E-33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>1.2133358649639599E-33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1490,12 +1495,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1506,48 +1511,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>7.2017297682751277E-5</v>
+        <v>7.2017297682751304E-5</v>
       </c>
       <c r="C8" s="1">
-        <v>1.4403459536550255E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>1.4403459536550299E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>6.2184419952668641E-6</v>
+        <v>6.2184419952668599E-6</v>
       </c>
       <c r="C9" s="1">
-        <v>1.2436883990533733E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>1.2436883990533699E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="1">
-        <v>1.4455369935836761E-3</v>
+        <v>1.44553699358368E-3</v>
       </c>
       <c r="C10" s="1">
-        <v>1.4455369935836761E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>1.44553699358368E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0223128039325106E-4</v>
+        <v>1.0223128039325099E-4</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1628347024258204E-3</v>
+        <v>1.1628347024258199E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1561,21 +1566,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1583,7 +1588,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1615,43 +1620,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -1668,19 +1673,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="10.5703125" style="1"/>
+    <col min="1" max="16384" width="10.5859375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1703,10 +1708,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1722,195 +1727,195 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="6">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="6">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="6">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="6">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="6">
-        <v>0.54159993841241572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.54159993841241605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="6">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="6">
-        <v>-1.1097262320569594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-1.1097262320569601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F6" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="I10" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F12" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H14" s="3"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="H18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -1928,19 +1933,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1963,10 +1968,10 @@
         <v>0.8</v>
       </c>
       <c r="H1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="I1" s="6">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="J1" s="6">
         <v>1.2</v>
@@ -1982,89 +1987,89 @@
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="6">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="6">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="6">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="6">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="6">
-        <v>-1.2174432654761544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>-1.21744326547615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="6">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="6">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="6">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="6">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="6">
-        <v>-0.64984386018298912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>-0.64984386018298901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,92 +2110,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="6">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="6">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="6">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="6">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="6">
-        <v>-0.40259011361710589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>-0.402590113617106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K7" s="3"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F18" s="3"/>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.35">
       <c r="H20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.35">
       <c r="K22" s="3"/>
       <c r="M22" s="3"/>
     </row>
@@ -2207,34 +2212,34 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1171875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2251,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2268,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2333,34 +2338,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1171875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5859375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.41015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.29296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -2394,7 +2399,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2411,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2476,20 +2481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="21.1171875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2521,7 +2526,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -2537,7 +2542,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2545,7 +2550,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2561,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2577,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75" customHeight="1">
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="12.75" customHeight="1">
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -2610,7 +2615,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="1">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="1">
         <v>0.4</v>
@@ -2644,10 +2649,10 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="1">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16" s="1">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="1">
         <v>0.8</v>
@@ -2662,13 +2667,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="1">
         <v>1.3</v>
       </c>
       <c r="P16" s="1">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" s="1">
         <v>1.5</v>
@@ -2677,13 +2682,13 @@
         <v>1.6</v>
       </c>
       <c r="S16" s="1">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16" s="1">
         <v>1.8</v>
       </c>
       <c r="U16" s="1">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16" s="1">
         <v>2</v>
@@ -2703,19 +2708,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2723,7 +2728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2731,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -2755,10 +2760,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
     </row>
   </sheetData>
@@ -2773,19 +2778,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.703125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -2864,64 +2869,64 @@
         <v>-9.8415630865711395E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>-0.19421341855574617</v>
+        <v>-0.194213418555746</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.28729355925265893</v>
+        <v>-0.28729355925265898</v>
       </c>
       <c r="F2" s="1">
-        <v>-0.37756345942282005</v>
+        <v>-0.37756345942281999</v>
       </c>
       <c r="G2" s="1">
-        <v>-0.4649366493466236</v>
+        <v>-0.46493664934662399</v>
       </c>
       <c r="H2" s="1">
-        <v>-0.5493367221306048</v>
+        <v>-0.54933672213060503</v>
       </c>
       <c r="I2" s="1">
-        <v>-0.63069609006755056</v>
+        <v>-0.63069609006755101</v>
       </c>
       <c r="J2" s="1">
-        <v>-0.70895953801899125</v>
+        <v>-0.70895953801899103</v>
       </c>
       <c r="K2" s="1">
-        <v>-0.78408287327487469</v>
+        <v>-0.78408287327487503</v>
       </c>
       <c r="L2" s="1">
-        <v>-0.85603594995930821</v>
+        <v>-0.85603594995930798</v>
       </c>
       <c r="M2" s="1">
-        <v>-0.92480109285265377</v>
+        <v>-0.92480109285265399</v>
       </c>
       <c r="N2" s="1">
-        <v>-0.9903754864911255</v>
+        <v>-0.99037548649112594</v>
       </c>
       <c r="O2" s="1">
-        <v>-1.0527692995615539</v>
+        <v>-1.0527692995615501</v>
       </c>
       <c r="P2" s="1">
-        <v>-1.1120073944279283</v>
+        <v>-1.1120073944279301</v>
       </c>
       <c r="Q2" s="1">
-        <v>-1.168127143194938</v>
+        <v>-1.16812714319494</v>
       </c>
       <c r="R2" s="1">
-        <v>-1.2211794869461998</v>
+        <v>-1.2211794869462</v>
       </c>
       <c r="S2" s="1">
-        <v>-1.2712265015727739</v>
+        <v>-1.27122650157277</v>
       </c>
       <c r="T2" s="1">
-        <v>-1.3183419034269952</v>
+        <v>-1.3183419034270001</v>
       </c>
       <c r="U2" s="1">
-        <v>-1.3626084757375463</v>
+        <v>-1.3626084757375501</v>
       </c>
       <c r="V2" s="1">
-        <v>-1.4041180953399601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>-1.4041180953399599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2929,67 +2934,67 @@
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>-6.1695580472264637E-2</v>
+        <v>-6.1695580472264602E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.12025159100022467</v>
+        <v>-0.12025159100022501</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.17570780612319539</v>
+        <v>-0.175707806123195</v>
       </c>
       <c r="F3" s="1">
-        <v>-0.22811720726268783</v>
+        <v>-0.228117207262688</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.27754366929297497</v>
+        <v>-0.27754366929297503</v>
       </c>
       <c r="H3" s="1">
-        <v>-0.32406241829767435</v>
+        <v>-0.32406241829767402</v>
       </c>
       <c r="I3" s="1">
-        <v>-0.3677574742905928</v>
+        <v>-0.36775747429059302</v>
       </c>
       <c r="J3" s="1">
-        <v>-0.40872171608120611</v>
+        <v>-0.408721716081206</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.44705433466919547</v>
+        <v>-0.44705433466919497</v>
       </c>
       <c r="L3" s="1">
-        <v>-0.48286066269974875</v>
+        <v>-0.48286066269974898</v>
       </c>
       <c r="M3" s="1">
         <v>-0.51624977105786596</v>
       </c>
       <c r="N3" s="1">
-        <v>-0.54733420681301193</v>
+        <v>-0.54733420681301204</v>
       </c>
       <c r="O3" s="1">
-        <v>-0.57622783863033211</v>
+        <v>-0.576227838630332</v>
       </c>
       <c r="P3" s="1">
-        <v>-0.60304561487847708</v>
+        <v>-0.60304561487847697</v>
       </c>
       <c r="Q3" s="1">
-        <v>-0.62790172449432446</v>
+        <v>-0.62790172449432402</v>
       </c>
       <c r="R3" s="1">
-        <v>-0.65090944702397735</v>
+        <v>-0.65090944702397702</v>
       </c>
       <c r="S3" s="1">
-        <v>-0.67217965509992694</v>
+        <v>-0.67217965509992705</v>
       </c>
       <c r="T3" s="1">
-        <v>-0.69182079016701059</v>
+        <v>-0.69182079016701103</v>
       </c>
       <c r="U3" s="1">
-        <v>-0.70993769854923061</v>
+        <v>-0.70993769854923106</v>
       </c>
       <c r="V3" s="1">
-        <v>-0.72663170963117274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>-0.72663170963117296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2997,67 +3002,67 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>7.7639211246089856E-2</v>
+        <v>7.7639211246089898E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.14472504847124545</v>
+        <v>0.14472504847124501</v>
       </c>
       <c r="E4" s="1">
-        <v>0.20302845631162525</v>
+        <v>0.203028456311625</v>
       </c>
       <c r="F4" s="1">
-        <v>0.25393703305900761</v>
+        <v>0.253937033059008</v>
       </c>
       <c r="G4" s="1">
-        <v>0.29855749804680276</v>
+        <v>0.29855749804680298</v>
       </c>
       <c r="H4" s="1">
-        <v>0.33778725020176992</v>
+        <v>0.33778725020176997</v>
       </c>
       <c r="I4" s="1">
-        <v>0.37236316575682393</v>
+        <v>0.37236316575682399</v>
       </c>
       <c r="J4" s="1">
-        <v>0.40289805134748413</v>
+        <v>0.40289805134748402</v>
       </c>
       <c r="K4" s="1">
-        <v>0.42990615842655922</v>
+        <v>0.42990615842655899</v>
       </c>
       <c r="L4" s="1">
-        <v>0.45382343385594281</v>
+        <v>0.45382343385594298</v>
       </c>
       <c r="M4" s="1">
-        <v>0.47502183439538348</v>
+        <v>0.47502183439538298</v>
       </c>
       <c r="N4" s="1">
-        <v>0.49382137920476943</v>
+        <v>0.49382137920476898</v>
       </c>
       <c r="O4" s="1">
-        <v>0.51049863814483687</v>
+        <v>0.51049863814483698</v>
       </c>
       <c r="P4" s="1">
-        <v>0.52529432069690762</v>
+        <v>0.52529432069690796</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.53841853990578037</v>
+        <v>0.53841853990578004</v>
       </c>
       <c r="R4" s="1">
-        <v>0.55005582014022014</v>
+        <v>0.55005582014022003</v>
       </c>
       <c r="S4" s="1">
-        <v>0.56036848504203962</v>
+        <v>0.56036848504203995</v>
       </c>
       <c r="T4" s="1">
-        <v>0.56950009509884514</v>
+        <v>0.56950009509884503</v>
       </c>
       <c r="U4" s="1">
-        <v>0.5775776982012687</v>
+        <v>0.57757769820126903</v>
       </c>
       <c r="V4" s="1">
         <v>0.58471425529729304</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -3065,64 +3070,64 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>-7.2980348206178186E-2</v>
+        <v>-7.29803482061782E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.14602894484549481</v>
+        <v>-0.146028944845495</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.21903139734662802</v>
+        <v>-0.21903139734662799</v>
       </c>
       <c r="F5" s="1">
-        <v>-0.29186239678888332</v>
+        <v>-0.29186239678888298</v>
       </c>
       <c r="G5" s="1">
-        <v>-0.36438997011105467</v>
+        <v>-0.36438997011105501</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.4364779942273927</v>
+        <v>-0.43647799422739297</v>
       </c>
       <c r="I5" s="1">
-        <v>-0.50798923604580948</v>
+        <v>-0.50798923604580903</v>
       </c>
       <c r="J5" s="1">
-        <v>-0.57878698389398842</v>
+        <v>-0.57878698389398797</v>
       </c>
       <c r="K5" s="1">
-        <v>-0.64873713558317958</v>
+        <v>-0.64873713558318002</v>
       </c>
       <c r="L5" s="1">
-        <v>-0.71770927071314694</v>
+        <v>-0.71770927071314705</v>
       </c>
       <c r="M5" s="1">
-        <v>-0.78557807685706316</v>
+        <v>-0.78557807685706305</v>
       </c>
       <c r="N5" s="1">
-        <v>-0.85222410981586638</v>
+        <v>-0.85222410981586605</v>
       </c>
       <c r="O5" s="1">
-        <v>-0.91753476827466685</v>
+        <v>-0.91753476827466696</v>
       </c>
       <c r="P5" s="1">
         <v>-0.98140489075521198</v>
       </c>
       <c r="Q5" s="1">
-        <v>-1.0437374061694207</v>
+        <v>-1.04373740616942</v>
       </c>
       <c r="R5" s="1">
-        <v>-1.104443833661269</v>
+        <v>-1.1044438336612701</v>
       </c>
       <c r="S5" s="1">
-        <v>-1.1634446725731808</v>
+        <v>-1.16344467257318</v>
       </c>
       <c r="T5" s="1">
-        <v>-1.2206698155918494</v>
+        <v>-1.2206698155918501</v>
       </c>
       <c r="U5" s="1">
-        <v>-1.2760587016112892</v>
+        <v>-1.2760587016112901</v>
       </c>
       <c r="V5" s="1">
-        <v>-1.3295606106401805</v>
+        <v>-1.3295606106401801</v>
       </c>
     </row>
   </sheetData>
